--- a/物料清单.xlsx
+++ b/物料清单.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="169">
   <si>
     <t>物料名称</t>
   </si>
@@ -689,6 +689,53 @@
   </si>
   <si>
     <t>24V电压的，可选，不长时间使用可以不加风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少30W，支持 PD3.0/2.0或者BC1.2快充协议
+并且使用该协议时，输出功率能达到至少30W。
+测试过小米的55W和90W充电器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6061铝条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 x 20mm x 200mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充电头 + Type-C接口线缆
+电脑或者手机的都可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流电源（与Type-C电源，二选一）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V-20V的都可以，推荐2A或者以上电流的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,13 +988,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>53007</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>59636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47166</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>174956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1315,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1576,8 +1623,8 @@
       <c r="A24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="8">
-        <v>4</v>
+      <c r="B24" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>28</v>
@@ -1631,8 +1678,8 @@
       <c r="A29" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="8">
-        <v>2</v>
+      <c r="B29" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>152</v>
@@ -1642,431 +1689,464 @@
       <c r="A30" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="8">
-        <v>1</v>
+      <c r="B30" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B37" s="13">
         <v>1</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>72</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>117</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="C62" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>156</v>
+        <v>128</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C63" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B67" s="4">
         <v>3</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="3"/>
+      <c r="D67" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/物料清单.xlsx
+++ b/物料清单.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\魔方机器人2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemn.JN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF32A051-9488-4519-8CD7-B12258A1EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18288" windowHeight="9180"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="12705" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="172">
   <si>
     <t>物料名称</t>
   </si>
@@ -494,9 +495,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>100mΩ 0805电阻</t>
-  </si>
-  <si>
     <t>R19,R20,R32,R33,R42,R43</t>
   </si>
   <si>
@@ -738,12 +736,111 @@
     <t>1条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>磁铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径6mm，厚度2-3mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0805电阻</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（100m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,6 +895,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="161"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -836,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,7 +973,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -911,7 +1032,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -955,7 +1082,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -994,12 +1127,18 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>47166</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>174956</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>1021</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1043,7 +1182,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1151,6 +1296,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1186,6 +1348,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1361,790 +1540,801 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="9">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="8">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="8">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="10">
-        <v>6</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="10">
-        <v>3</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="10">
-        <v>3</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B30" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="10" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="C32" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B33" s="10" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>60</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="13">
-        <v>1</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>63</v>
       </c>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="13" t="s">
         <v>69</v>
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>88</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C50" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="13" t="s">
         <v>102</v>
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="B55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="3" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="3" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D59" s="3" t="s">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="3" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="3" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="3" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="3" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="3" t="s">
+    </row>
+    <row r="65" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C66" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="B67" s="4">
         <v>3</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>141</v>
+      <c r="C67" s="14" t="s">
+        <v>140</v>
       </c>
       <c r="D67" s="3"/>
     </row>
